--- a/data/climate_data_availability/6118_data.xlsx
+++ b/data/climate_data_availability/6118_data.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20304"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_89FC7BA66C56D2C39F490834577C5BA0DED7B9C9" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="23955" windowHeight="11325"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="23955" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="179016" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="23">
   <si>
     <t>inventory nr</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
   <si>
     <t>month</t>
@@ -27,22 +31,16 @@
     <t>year</t>
   </si>
   <si>
-    <t>precip</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Matadi</t>
-  </si>
-  <si>
-    <t>precip_intensity</t>
-  </si>
-  <si>
     <t>temp_min</t>
   </si>
   <si>
     <t>temp_max</t>
+  </si>
+  <si>
+    <t>precip</t>
+  </si>
+  <si>
+    <t>precip_intensity</t>
   </si>
   <si>
     <t>psychrometry_temp_dry</t>
@@ -56,12 +54,45 @@
   <si>
     <t>evapometre_de_piche</t>
   </si>
+  <si>
+    <t>temp du bar</t>
+  </si>
+  <si>
+    <t>haut bar. Luc</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>actino</t>
+  </si>
+  <si>
+    <t>hygro</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Alt</t>
+  </si>
+  <si>
+    <t>Matadi</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,7 +139,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="1"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -116,6 +147,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -164,7 +198,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -197,9 +231,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -232,6 +283,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -407,60 +475,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L109"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A110" sqref="A110"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <pane ySplit="1" topLeftCell="I100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2:S109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2">
         <v>6118</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>12</v>
@@ -492,13 +590,34 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3">
         <v>6118</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>11</v>
@@ -530,13 +649,34 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4">
         <v>6118</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -568,13 +708,34 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5">
         <v>6118</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>9</v>
@@ -606,13 +767,34 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6">
         <v>6118</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -644,13 +826,34 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7">
         <v>6118</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -682,13 +885,34 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8">
         <v>6118</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -720,13 +944,34 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9">
         <v>6118</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -758,13 +1003,34 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10">
         <v>6118</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -796,13 +1062,34 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11">
         <v>6118</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -834,13 +1121,34 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12">
         <v>6118</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -872,13 +1180,34 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13">
         <v>6118</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -910,13 +1239,34 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14">
         <v>6118</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -948,13 +1298,34 @@
       <c r="L14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15">
         <v>6118</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>11</v>
@@ -986,13 +1357,34 @@
       <c r="L15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16">
         <v>6118</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <v>10</v>
@@ -1024,13 +1416,34 @@
       <c r="L16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17">
         <v>6118</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>9</v>
@@ -1062,13 +1475,34 @@
       <c r="L17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18">
         <v>6118</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -1100,13 +1534,34 @@
       <c r="L18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19">
         <v>6118</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -1138,13 +1593,34 @@
       <c r="L19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20">
         <v>6118</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -1176,13 +1652,34 @@
       <c r="L20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21">
         <v>6118</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -1214,13 +1711,34 @@
       <c r="L21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22">
         <v>6118</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -1252,13 +1770,34 @@
       <c r="L22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23">
         <v>6118</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -1290,13 +1829,34 @@
       <c r="L23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24">
         <v>6118</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -1328,13 +1888,34 @@
       <c r="L24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25">
         <v>6118</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1366,13 +1947,34 @@
       <c r="L25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26">
         <v>6118</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C26">
         <v>12</v>
@@ -1404,13 +2006,34 @@
       <c r="L26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27">
         <v>6118</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C27">
         <v>11</v>
@@ -1442,13 +2065,34 @@
       <c r="L27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28">
         <v>6118</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C28">
         <v>10</v>
@@ -1480,13 +2124,34 @@
       <c r="L28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29">
         <v>6118</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C29">
         <v>9</v>
@@ -1518,13 +2183,34 @@
       <c r="L29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30">
         <v>6118</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C30">
         <v>8</v>
@@ -1556,13 +2242,34 @@
       <c r="L30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31">
         <v>6118</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -1594,13 +2301,34 @@
       <c r="L31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32">
         <v>6118</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -1632,13 +2360,34 @@
       <c r="L32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33">
         <v>6118</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -1670,13 +2419,34 @@
       <c r="L33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34">
         <v>6118</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -1708,13 +2478,34 @@
       <c r="L34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35">
         <v>6118</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -1746,13 +2537,34 @@
       <c r="L35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36">
         <v>6118</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -1784,13 +2596,34 @@
       <c r="L36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37">
         <v>6118</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1822,13 +2655,34 @@
       <c r="L37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38">
         <v>6118</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C38">
         <v>12</v>
@@ -1860,13 +2714,34 @@
       <c r="L38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39">
         <v>6118</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C39">
         <v>11</v>
@@ -1898,13 +2773,34 @@
       <c r="L39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40">
         <v>6118</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C40">
         <v>10</v>
@@ -1936,13 +2832,34 @@
       <c r="L40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41">
         <v>6118</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C41">
         <v>9</v>
@@ -1974,13 +2891,34 @@
       <c r="L41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42">
         <v>6118</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C42">
         <v>8</v>
@@ -2012,13 +2950,34 @@
       <c r="L42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43">
         <v>6118</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C43">
         <v>7</v>
@@ -2050,13 +3009,34 @@
       <c r="L43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44">
         <v>6118</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -2088,13 +3068,34 @@
       <c r="L44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45">
         <v>6118</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -2126,13 +3127,34 @@
       <c r="L45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46">
         <v>6118</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -2164,13 +3186,34 @@
       <c r="L46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47">
         <v>6118</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -2202,13 +3245,34 @@
       <c r="L47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48">
         <v>6118</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -2240,13 +3304,34 @@
       <c r="L48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49">
         <v>6118</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -2278,13 +3363,34 @@
       <c r="L49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50">
         <v>6118</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C50">
         <v>12</v>
@@ -2316,13 +3422,34 @@
       <c r="L50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51">
         <v>6118</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C51">
         <v>11</v>
@@ -2354,13 +3481,34 @@
       <c r="L51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52">
         <v>6118</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C52">
         <v>10</v>
@@ -2392,13 +3540,34 @@
       <c r="L52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53">
         <v>6118</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C53">
         <v>9</v>
@@ -2430,13 +3599,34 @@
       <c r="L53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54">
         <v>6118</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C54">
         <v>8</v>
@@ -2468,13 +3658,34 @@
       <c r="L54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55">
         <v>6118</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C55">
         <v>7</v>
@@ -2506,13 +3717,34 @@
       <c r="L55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56">
         <v>6118</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C56">
         <v>6</v>
@@ -2544,13 +3776,34 @@
       <c r="L56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57">
         <v>6118</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -2582,13 +3835,34 @@
       <c r="L57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
       <c r="A58">
         <v>6118</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -2620,13 +3894,34 @@
       <c r="L58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59">
         <v>6118</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -2658,13 +3953,34 @@
       <c r="L59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60">
         <v>6118</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -2696,13 +4012,34 @@
       <c r="L60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
       <c r="A61">
         <v>6118</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -2734,13 +4071,34 @@
       <c r="L61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
       <c r="A62">
         <v>6118</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C62">
         <v>12</v>
@@ -2772,13 +4130,34 @@
       <c r="L62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
       <c r="A63">
         <v>6118</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C63">
         <v>11</v>
@@ -2810,13 +4189,34 @@
       <c r="L63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
       <c r="A64">
         <v>6118</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C64">
         <v>10</v>
@@ -2848,13 +4248,34 @@
       <c r="L64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19">
       <c r="A65">
         <v>6118</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C65">
         <v>9</v>
@@ -2886,13 +4307,34 @@
       <c r="L65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19">
       <c r="A66">
         <v>6118</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C66">
         <v>8</v>
@@ -2924,13 +4366,34 @@
       <c r="L66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19">
       <c r="A67">
         <v>6118</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C67">
         <v>7</v>
@@ -2962,13 +4425,34 @@
       <c r="L67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19">
       <c r="A68">
         <v>6118</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C68">
         <v>6</v>
@@ -3000,13 +4484,34 @@
       <c r="L68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19">
       <c r="A69">
         <v>6118</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C69">
         <v>5</v>
@@ -3038,13 +4543,34 @@
       <c r="L69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19">
       <c r="A70">
         <v>6118</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -3076,13 +4602,34 @@
       <c r="L70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19">
       <c r="A71">
         <v>6118</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -3114,13 +4661,34 @@
       <c r="L71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19">
       <c r="A72">
         <v>6118</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -3152,13 +4720,34 @@
       <c r="L72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19">
       <c r="A73">
         <v>6118</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -3190,13 +4779,34 @@
       <c r="L73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19">
       <c r="A74">
         <v>6118</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C74">
         <v>12</v>
@@ -3228,13 +4838,34 @@
       <c r="L74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19">
       <c r="A75">
         <v>6118</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C75">
         <v>11</v>
@@ -3266,13 +4897,34 @@
       <c r="L75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19">
       <c r="A76">
         <v>6118</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C76">
         <v>10</v>
@@ -3304,13 +4956,34 @@
       <c r="L76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19">
       <c r="A77">
         <v>6118</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C77">
         <v>9</v>
@@ -3342,13 +5015,34 @@
       <c r="L77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19">
       <c r="A78">
         <v>6118</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C78">
         <v>8</v>
@@ -3380,13 +5074,34 @@
       <c r="L78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19">
       <c r="A79">
         <v>6118</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C79">
         <v>7</v>
@@ -3418,13 +5133,34 @@
       <c r="L79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19">
       <c r="A80">
         <v>6118</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C80">
         <v>6</v>
@@ -3456,13 +5192,34 @@
       <c r="L80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19">
       <c r="A81">
         <v>6118</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C81">
         <v>5</v>
@@ -3494,13 +5251,34 @@
       <c r="L81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19">
       <c r="A82">
         <v>6118</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C82">
         <v>4</v>
@@ -3532,13 +5310,34 @@
       <c r="L82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19">
       <c r="A83">
         <v>6118</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -3570,13 +5369,34 @@
       <c r="L83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19">
       <c r="A84">
         <v>6118</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -3608,13 +5428,34 @@
       <c r="L84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19">
       <c r="A85">
         <v>6118</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -3646,13 +5487,34 @@
       <c r="L85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19">
       <c r="A86">
         <v>6118</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C86">
         <v>12</v>
@@ -3684,13 +5546,34 @@
       <c r="L86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19">
       <c r="A87">
         <v>6118</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C87">
         <v>11</v>
@@ -3722,13 +5605,34 @@
       <c r="L87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19">
       <c r="A88">
         <v>6118</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C88">
         <v>10</v>
@@ -3760,13 +5664,34 @@
       <c r="L88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19">
       <c r="A89">
         <v>6118</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C89">
         <v>9</v>
@@ -3798,13 +5723,34 @@
       <c r="L89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19">
       <c r="A90">
         <v>6118</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C90">
         <v>8</v>
@@ -3836,13 +5782,34 @@
       <c r="L90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19">
       <c r="A91">
         <v>6118</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C91">
         <v>7</v>
@@ -3874,13 +5841,34 @@
       <c r="L91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+      <c r="S91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19">
       <c r="A92">
         <v>6118</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C92">
         <v>6</v>
@@ -3912,13 +5900,34 @@
       <c r="L92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+      <c r="S92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19">
       <c r="A93">
         <v>6118</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C93">
         <v>5</v>
@@ -3950,13 +5959,34 @@
       <c r="L93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>0</v>
+      </c>
+      <c r="S93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19">
       <c r="A94">
         <v>6118</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C94">
         <v>4</v>
@@ -3988,13 +6018,34 @@
       <c r="L94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>0</v>
+      </c>
+      <c r="S94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19">
       <c r="A95">
         <v>6118</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C95">
         <v>3</v>
@@ -4026,13 +6077,34 @@
       <c r="L95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>0</v>
+      </c>
+      <c r="S95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19">
       <c r="A96">
         <v>6118</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -4064,13 +6136,34 @@
       <c r="L96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <v>0</v>
+      </c>
+      <c r="S96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19">
       <c r="A97">
         <v>6118</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -4102,13 +6195,34 @@
       <c r="L97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+      <c r="S97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19">
       <c r="A98">
         <v>6118</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C98">
         <v>12</v>
@@ -4140,13 +6254,34 @@
       <c r="L98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <v>0</v>
+      </c>
+      <c r="S98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19">
       <c r="A99">
         <v>6118</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C99">
         <v>11</v>
@@ -4178,13 +6313,34 @@
       <c r="L99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19">
       <c r="A100">
         <v>6118</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C100">
         <v>10</v>
@@ -4216,13 +6372,34 @@
       <c r="L100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <v>0</v>
+      </c>
+      <c r="S100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19">
       <c r="A101">
         <v>6118</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C101">
         <v>9</v>
@@ -4254,13 +6431,34 @@
       <c r="L101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <v>0</v>
+      </c>
+      <c r="S101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19">
       <c r="A102">
         <v>6118</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C102">
         <v>8</v>
@@ -4292,13 +6490,34 @@
       <c r="L102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+      <c r="R102">
+        <v>0</v>
+      </c>
+      <c r="S102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19">
       <c r="A103">
         <v>6118</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C103">
         <v>7</v>
@@ -4330,13 +6549,34 @@
       <c r="L103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+      <c r="P103">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="R103">
+        <v>0</v>
+      </c>
+      <c r="S103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19">
       <c r="A104">
         <v>6118</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C104">
         <v>6</v>
@@ -4368,13 +6608,34 @@
       <c r="L104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="P104">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+      <c r="R104">
+        <v>0</v>
+      </c>
+      <c r="S104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19">
       <c r="A105">
         <v>6118</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C105">
         <v>5</v>
@@ -4406,13 +6667,34 @@
       <c r="L105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="R105">
+        <v>0</v>
+      </c>
+      <c r="S105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19">
       <c r="A106">
         <v>6118</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C106">
         <v>4</v>
@@ -4444,13 +6726,34 @@
       <c r="L106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+      <c r="R106">
+        <v>0</v>
+      </c>
+      <c r="S106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19">
       <c r="A107">
         <v>6118</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C107">
         <v>3</v>
@@ -4482,13 +6785,34 @@
       <c r="L107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
+      <c r="R107">
+        <v>0</v>
+      </c>
+      <c r="S107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19">
       <c r="A108">
         <v>6118</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C108">
         <v>2</v>
@@ -4520,13 +6844,34 @@
       <c r="L108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="P108">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
+      </c>
+      <c r="R108">
+        <v>0</v>
+      </c>
+      <c r="S108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19">
       <c r="A109">
         <v>6118</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -4557,6 +6902,27 @@
       </c>
       <c r="L109">
         <v>1</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+      <c r="R109">
+        <v>0</v>
+      </c>
+      <c r="S109">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4565,24 +6931,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
